--- a/DateBase/orders/Nha Thu_2026-2-5.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-5.xlsx
@@ -527,6 +527,9 @@
       <c r="A11" t="str">
         <v>4</v>
       </c>
+      <c r="C11" t="str">
+        <v>483_圣诞花_mimosa_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2026-2-5.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-5.xlsx
@@ -530,6 +530,9 @@
       <c r="C11" t="str">
         <v>483_圣诞花_mimosa_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -591,7 +594,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02015151515615010030</v>
+        <v>020151515156150100320</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-5.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,9 +534,66 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>279_完美甜蜜_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>394_矢车菊_Cornflower_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -594,7 +651,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020151515156150100320</v>
+        <v>02015151515615010032051565101012</v>
       </c>
     </row>
   </sheetData>
